--- a/Docs/ProjectManagment.xlsx
+++ b/Docs/ProjectManagment.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE9A76-BD0D-4190-8D64-659B2374779D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5B4B5-02DF-4EF9-8014-45F15B37E98C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
-    <sheet name="Pmsheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId2"/>
+    <sheet name="Pmsheet" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
   <si>
     <t>Initial</t>
   </si>
@@ -297,6 +297,39 @@
   </si>
   <si>
     <t>Animation scene2 encryption</t>
+  </si>
+  <si>
+    <t>Scene 3 - Black hole</t>
+  </si>
+  <si>
+    <t>Create Scene 6</t>
+  </si>
+  <si>
+    <t>Scene 6 - implement decryption</t>
+  </si>
+  <si>
+    <t>Scene 3 - new animation for moving letters</t>
+  </si>
+  <si>
+    <t>Scene 6 - new animation for decryption</t>
+  </si>
+  <si>
+    <t>Adapt to TUIO from TrackLink</t>
+  </si>
+  <si>
+    <t>25Jan</t>
+  </si>
+  <si>
+    <t>31 32</t>
+  </si>
+  <si>
+    <t>33 34</t>
+  </si>
+  <si>
+    <t>35 36 37</t>
+  </si>
+  <si>
+    <t>Research double instancing</t>
   </si>
 </sst>
 </file>
@@ -453,7 +486,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -547,6 +580,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -692,6 +730,45 @@
                 <c:pt idx="24">
                   <c:v>44193</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44235</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44249</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44263</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44277</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44291</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44305</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44319</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44333</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44347</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44361</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -753,27 +830,66 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.231578947368419</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26.463157894736838</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.694736842105257</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.926315789473678</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1578947368420991</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5967450271247738</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1934900542495477</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1298,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1586,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A31" si="2">A8+14</f>
+        <f t="shared" ref="A9:A44" si="2">A8+14</f>
         <v>43885</v>
       </c>
       <c r="B9" s="6">
@@ -2015,9 +2131,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
         <f t="shared" si="3"/>
@@ -2029,7 +2143,7 @@
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
@@ -2053,19 +2167,23 @@
         <v>36</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>30</v>
+      </c>
       <c r="F24" s="7">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
@@ -2073,11 +2191,11 @@
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
-        <v>34.231578947368419</v>
+        <v>42</v>
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0.21578947368421053</v>
+        <v>0.18636363636363637</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2088,16 +2206,22 @@
       <c r="B25" s="6">
         <v>36</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>36</v>
+      </c>
       <c r="F25" s="7">
         <f t="shared" si="3"/>
-        <v>34.231578947368419</v>
+        <v>44</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
@@ -2105,15 +2229,15 @@
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
-        <v>26.463157894736838</v>
+        <v>42</v>
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0.21578947368421053</v>
+        <v>0.16796875</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2124,14 +2248,18 @@
       <c r="B26" s="6">
         <v>36</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
       <c r="D26" s="6">
         <v>3</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6">
+        <v>36</v>
+      </c>
       <c r="F26" s="7">
         <f t="shared" ref="F26:F31" si="7">J25+C26</f>
-        <v>26.463157894736838</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" ref="G26:G31" si="8">H25</f>
@@ -2143,15 +2271,15 @@
       </c>
       <c r="I26" s="7">
         <f t="shared" ref="I26:I31" si="10">I25+E25</f>
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" ref="J26:J31" si="11">MAX(IF(OR(ISBLANK(D26),ISBLANK(E26)),F26-K25*B26,F26-D26),0)</f>
-        <v>18.694736842105257</v>
+        <v>42</v>
       </c>
       <c r="K26" s="9">
         <f t="shared" ref="K26:K31" si="12">IF(OR(ISBLANK(D26),ISBLANK(E26)),K25,H26/(I26+E26))</f>
-        <v>0.21578947368421053</v>
+        <v>0.15753424657534246</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,11 +2291,15 @@
         <v>36</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>36</v>
+      </c>
       <c r="F27" s="7">
         <f t="shared" si="7"/>
-        <v>18.694736842105257</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="8"/>
@@ -2175,19 +2307,19 @@
       </c>
       <c r="H27" s="7">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I27" s="7">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>292</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="11"/>
-        <v>10.926315789473678</v>
+        <v>39</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="12"/>
-        <v>0.21578947368421053</v>
+        <v>0.14939024390243902</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2198,32 +2330,38 @@
       <c r="B28" s="6">
         <v>36</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>36</v>
+      </c>
       <c r="F28" s="7">
         <f t="shared" si="7"/>
-        <v>10.926315789473678</v>
+        <v>44</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I28" s="7">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>328</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="11"/>
-        <v>3.1578947368420991</v>
+        <v>42</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="12"/>
-        <v>0.21578947368421053</v>
+        <v>0.14010989010989011</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,31 +2373,35 @@
         <v>36</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>36</v>
+      </c>
       <c r="F29" s="7">
         <f t="shared" si="7"/>
-        <v>3.1578947368420991</v>
+        <v>42</v>
       </c>
       <c r="G29" s="7">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H29" s="7">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I29" s="7">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K29" s="9">
         <f t="shared" si="12"/>
-        <v>0.21578947368421053</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2268,34 +2410,40 @@
         <v>44179</v>
       </c>
       <c r="B30" s="6">
-        <v>36</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>8</v>
+      </c>
+      <c r="E30" s="6">
+        <v>27</v>
+      </c>
       <c r="F30" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G30" s="7">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H30" s="7">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I30" s="7">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>400</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K30" s="9">
         <f t="shared" si="12"/>
-        <v>0.21578947368421053</v>
+        <v>0.13817330210772832</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2304,57 +2452,549 @@
         <v>44193</v>
       </c>
       <c r="B31" s="6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
       <c r="F31" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" si="8"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" si="9"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" si="10"/>
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K31" s="9">
         <f t="shared" si="12"/>
-        <v>0.21578947368421053</v>
+        <v>0.13817330210772832</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11">
+      <c r="A32" s="5">
+        <f t="shared" si="2"/>
+        <v>44207</v>
+      </c>
+      <c r="B32" s="6">
+        <v>36</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
+        <v>36</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" ref="F32:F44" si="13">J31+C32</f>
+        <v>37</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" ref="G32:G44" si="14">H31</f>
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" ref="H32:H44" si="15">G32+D32</f>
+        <v>67</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32:I44" si="16">I31+E31</f>
+        <v>427</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" ref="J32:J44" si="17">MAX(IF(OR(ISBLANK(D32),ISBLANK(E32)),F32-K31*B32,F32-D32),0)</f>
+        <v>29</v>
+      </c>
+      <c r="K32" s="9">
+        <f t="shared" ref="K32:K44" si="18">IF(OR(ISBLANK(D32),ISBLANK(E32)),K31,H32/(I32+E32))</f>
+        <v>0.1447084233261339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="2"/>
+        <v>44221</v>
+      </c>
+      <c r="B33" s="6">
+        <v>36</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>36</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="13"/>
+        <v>29</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="H33" s="7">
+        <f t="shared" si="15"/>
+        <v>72</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="16"/>
+        <v>463</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="17"/>
+        <v>24</v>
+      </c>
+      <c r="K33" s="9">
+        <f t="shared" si="18"/>
+        <v>0.14428857715430862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="2"/>
+        <v>44235</v>
+      </c>
+      <c r="B34" s="6">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
+        <v>4</v>
+      </c>
+      <c r="E34" s="6">
+        <v>18</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="14"/>
+        <v>72</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" si="15"/>
+        <v>76</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="16"/>
+        <v>499</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="18"/>
+        <v>0.14700193423597679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="2"/>
+        <v>44249</v>
+      </c>
+      <c r="B35" s="6">
+        <v>36</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
+        <v>36</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="14"/>
+        <v>76</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="15"/>
+        <v>83</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="16"/>
+        <v>517</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="K35" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="2"/>
+        <v>44263</v>
+      </c>
+      <c r="B36" s="6">
+        <v>36</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7">
+        <f>J35+C36</f>
+        <v>13</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="14"/>
+        <v>83</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="17"/>
+        <v>7.5967450271247738</v>
+      </c>
+      <c r="K36" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="2"/>
+        <v>44277</v>
+      </c>
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7">
+        <f t="shared" si="13"/>
+        <v>7.5967450271247738</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="17"/>
+        <v>2.1934900542495477</v>
+      </c>
+      <c r="K37" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="2"/>
+        <v>44291</v>
+      </c>
+      <c r="B38" s="6">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7">
+        <f t="shared" si="13"/>
+        <v>2.1934900542495477</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="2"/>
+        <v>44305</v>
+      </c>
+      <c r="B39" s="6">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f t="shared" si="2"/>
+        <v>44319</v>
+      </c>
+      <c r="B40" s="6">
+        <v>36</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <f t="shared" si="2"/>
+        <v>44333</v>
+      </c>
+      <c r="B41" s="6">
+        <v>36</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <f t="shared" si="2"/>
+        <v>44347</v>
+      </c>
+      <c r="B42" s="6">
+        <v>36</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <f t="shared" si="2"/>
+        <v>44361</v>
+      </c>
+      <c r="B43" s="6">
+        <v>36</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <f t="shared" si="2"/>
+        <v>44375</v>
+      </c>
+      <c r="B44" s="6">
+        <v>36</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <f t="shared" si="18"/>
+        <v>0.15009041591320071</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11">
         <f>SUM(B7:B31)</f>
-        <v>558</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11">
+        <v>513</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11">
         <f ca="1">AVERAGE(D7:D52)</f>
         <v>4</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E45" s="11">
         <f ca="1">AVERAGE(E7:E52)</f>
         <v>19.166666666666668</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="12"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2367,786 +3007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
-        <v>43959</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36">
-        <v>13</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37">
-        <v>6</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>43962</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
-        <v>43966</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>7</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <v>43969</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-      <c r="D52">
-        <v>7</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,7 +3211,9 @@
         <v>3</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="E12" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="19" t="s">
         <v>56</v>
       </c>
@@ -3375,7 +3242,9 @@
         <v>8</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
@@ -3388,7 +3257,9 @@
         <v>8</v>
       </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="E15" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21">
@@ -3603,12 +3474,15 @@
       <c r="C30" s="26">
         <v>2</v>
       </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="26">
@@ -3624,10 +3498,977 @@
       </c>
       <c r="C32" s="26">
         <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>32</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="26">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>33</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>34</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="26">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>35</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="26">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="39" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>36</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="26">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>37</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="26">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>39</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f>SUM(C2:C40)</f>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>43959</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>43966</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <v>37561</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
+        <v>42675</v>
+      </c>
+      <c r="B56">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
+        <v>41974</v>
+      </c>
+      <c r="B57">
+        <v>13</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
+        <v>40544</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
+        <v>44235</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
+        <v>44249</v>
+      </c>
+      <c r="B63" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/ProjectManagment.xlsx
+++ b/Docs/ProjectManagment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C5B4B5-02DF-4EF9-8014-45F15B37E98C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221003E8-F58B-48A2-938E-A08BD5C3B11B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="3675" windowWidth="21015" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -574,16 +574,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,13 +866,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.5967450271247738</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1934900542495477</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>2.5379310344827584</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,12 +1426,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1463,19 +1463,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2658,7 +2658,9 @@
       <c r="D36" s="6">
         <v>5</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="6">
+        <v>18</v>
+      </c>
       <c r="F36" s="7">
         <f>J35+C36</f>
         <v>13</v>
@@ -2677,11 +2679,11 @@
       </c>
       <c r="J36" s="7">
         <f t="shared" si="17"/>
-        <v>7.5967450271247738</v>
+        <v>8</v>
       </c>
       <c r="K36" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15411558669001751</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2690,16 +2692,18 @@
         <v>44277</v>
       </c>
       <c r="B37" s="6">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="6">
+        <v>9</v>
+      </c>
       <c r="F37" s="7">
         <f t="shared" si="13"/>
-        <v>7.5967450271247738</v>
+        <v>8</v>
       </c>
       <c r="G37" s="7">
         <f t="shared" si="14"/>
@@ -2711,15 +2715,15 @@
       </c>
       <c r="I37" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="17"/>
-        <v>2.1934900542495477</v>
+        <v>8</v>
       </c>
       <c r="K37" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2735,7 +2739,7 @@
       <c r="E38" s="6"/>
       <c r="F38" s="7">
         <f t="shared" si="13"/>
-        <v>2.1934900542495477</v>
+        <v>8</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="14"/>
@@ -2747,15 +2751,15 @@
       </c>
       <c r="I38" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.5379310344827584</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2771,7 +2775,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.5379310344827584</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="14"/>
@@ -2783,7 +2787,7 @@
       </c>
       <c r="I39" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="17"/>
@@ -2791,7 +2795,7 @@
       </c>
       <c r="K39" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2819,7 +2823,7 @@
       </c>
       <c r="I40" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="17"/>
@@ -2827,7 +2831,7 @@
       </c>
       <c r="K40" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2855,7 +2859,7 @@
       </c>
       <c r="I41" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="17"/>
@@ -2863,7 +2867,7 @@
       </c>
       <c r="K41" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2891,7 +2895,7 @@
       </c>
       <c r="I42" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="17"/>
@@ -2899,7 +2903,7 @@
       </c>
       <c r="K42" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2927,7 +2931,7 @@
       </c>
       <c r="I43" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="17"/>
@@ -2935,7 +2939,7 @@
       </c>
       <c r="K43" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2963,7 +2967,7 @@
       </c>
       <c r="I44" s="7">
         <f t="shared" si="16"/>
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="17"/>
@@ -2971,7 +2975,7 @@
       </c>
       <c r="K44" s="9">
         <f t="shared" si="18"/>
-        <v>0.15009041591320071</v>
+        <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3008,10 +3012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,7 +3486,7 @@
       <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="26">
@@ -3607,12 +3611,6 @@
       </c>
       <c r="C40" s="26">
         <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <f>SUM(C2:C40)</f>
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4390,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33">
+      <c r="A55" s="31">
         <v>37561</v>
       </c>
       <c r="B55">
@@ -4403,7 +4401,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33">
+      <c r="A56" s="31">
         <v>42675</v>
       </c>
       <c r="B56">
@@ -4414,7 +4412,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33">
+      <c r="A57" s="31">
         <v>41974</v>
       </c>
       <c r="B57">
@@ -4425,7 +4423,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33">
+      <c r="A59" s="31">
         <v>40544</v>
       </c>
       <c r="B59">
@@ -4447,7 +4445,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="32">
         <v>44235</v>
       </c>
       <c r="B62" t="s">
@@ -4458,7 +4456,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+      <c r="A63" s="32">
         <v>44249</v>
       </c>
       <c r="B63" t="s">

--- a/Docs/ProjectManagment.xlsx
+++ b/Docs/ProjectManagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221003E8-F58B-48A2-938E-A08BD5C3B11B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83357423-04ED-4D43-8BFE-43D23052EEE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="3675" windowWidth="21015" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13170" yWindow="4305" windowWidth="21015" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
   <si>
     <t>Initial</t>
   </si>
@@ -1416,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -3014,8 +3014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,6 +3600,9 @@
       </c>
       <c r="C39" s="26">
         <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">

--- a/Docs/ProjectManagment.xlsx
+++ b/Docs/ProjectManagment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\AEC-Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83357423-04ED-4D43-8BFE-43D23052EEE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E6C910-97DF-475F-BF22-8D22E0ADA54F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13170" yWindow="4305" windowWidth="21015" windowHeight="13110" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
   <si>
     <t>Initial</t>
   </si>
@@ -317,9 +317,6 @@
     <t>Adapt to TUIO from TrackLink</t>
   </si>
   <si>
-    <t>25Jan</t>
-  </si>
-  <si>
     <t>31 32</t>
   </si>
   <si>
@@ -330,6 +327,12 @@
   </si>
   <si>
     <t>Research double instancing</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Story-ID</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -574,8 +577,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -584,6 +585,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,10 +876,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.5379310344827584</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>2.8065573770491801</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -1416,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,12 +1430,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1463,19 +1467,19 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -2735,8 +2739,12 @@
         <v>36</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>30</v>
+      </c>
       <c r="F38" s="7">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -2755,11 +2763,11 @@
       </c>
       <c r="J38" s="7">
         <f t="shared" si="17"/>
-        <v>2.5379310344827584</v>
+        <v>8</v>
       </c>
       <c r="K38" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2775,7 +2783,7 @@
       <c r="E39" s="6"/>
       <c r="F39" s="7">
         <f t="shared" si="13"/>
-        <v>2.5379310344827584</v>
+        <v>8</v>
       </c>
       <c r="G39" s="7">
         <f t="shared" si="14"/>
@@ -2787,15 +2795,15 @@
       </c>
       <c r="I39" s="7">
         <f t="shared" si="16"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.8065573770491801</v>
       </c>
       <c r="K39" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2811,7 +2819,7 @@
       <c r="E40" s="6"/>
       <c r="F40" s="7">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.8065573770491801</v>
       </c>
       <c r="G40" s="7">
         <f t="shared" si="14"/>
@@ -2823,7 +2831,7 @@
       </c>
       <c r="I40" s="7">
         <f t="shared" si="16"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="17"/>
@@ -2831,7 +2839,7 @@
       </c>
       <c r="K40" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,7 +2867,7 @@
       </c>
       <c r="I41" s="7">
         <f t="shared" si="16"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="17"/>
@@ -2867,7 +2875,7 @@
       </c>
       <c r="K41" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,7 +2903,7 @@
       </c>
       <c r="I42" s="7">
         <f t="shared" si="16"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="17"/>
@@ -2903,7 +2911,7 @@
       </c>
       <c r="K42" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,7 +2939,7 @@
       </c>
       <c r="I43" s="7">
         <f t="shared" si="16"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="17"/>
@@ -2939,7 +2947,7 @@
       </c>
       <c r="K43" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,7 +2975,7 @@
       </c>
       <c r="I44" s="7">
         <f t="shared" si="16"/>
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="17"/>
@@ -2975,7 +2983,7 @@
       </c>
       <c r="K44" s="9">
         <f t="shared" si="18"/>
-        <v>0.15172413793103448</v>
+        <v>0.14426229508196722</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3014,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3486,7 +3494,7 @@
       <c r="A31" s="24">
         <v>30</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="31" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="26">
@@ -3596,7 +3604,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="26">
         <v>5</v>
@@ -3624,13 +3632,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
@@ -4393,79 +4404,100 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="31">
-        <v>37561</v>
-      </c>
-      <c r="B55">
+      <c r="A55" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>44137</v>
+      </c>
+      <c r="B56" s="34">
         <v>11</v>
       </c>
-      <c r="C55">
+      <c r="C56" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="31">
-        <v>42675</v>
-      </c>
-      <c r="B56">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>44151</v>
+      </c>
+      <c r="B57" s="34">
         <v>29</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="31">
-        <v>41974</v>
-      </c>
-      <c r="B57">
+      <c r="C57" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>44179</v>
+      </c>
+      <c r="B58" s="34">
         <v>13</v>
       </c>
-      <c r="C57">
+      <c r="C58" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="31">
-        <v>40544</v>
-      </c>
-      <c r="B59">
+      <c r="A59" s="27"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <v>44207</v>
+      </c>
+      <c r="B60" s="34">
         <v>14</v>
       </c>
-      <c r="C59">
+      <c r="C60" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="34"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
+        <v>44221</v>
+      </c>
+      <c r="B62" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C62" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <v>44235</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
-        <v>44235</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C63" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <v>44249</v>
+      </c>
+      <c r="B64" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
-        <v>44249</v>
-      </c>
-      <c r="B63" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63">
+      <c r="C64" s="34">
         <v>7</v>
       </c>
     </row>
